--- a/ProcessSimulator/Runtime Comparisons.xlsx
+++ b/ProcessSimulator/Runtime Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A004A77E-FC3A-4FBD-BF06-4B267760857A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9653A01-55BC-4EB6-A063-8E7168FE2E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6000" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
                   <c:v>24021.920792079207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122509.40594059406</c:v>
+                  <c:v>122509.40594059401</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15022597.130000001</c:v>
@@ -1433,7 +1433,7 @@
                   <c:v>24021.920792079207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122509.40594059406</c:v>
+                  <c:v>122509.40594059401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,7 +3694,7 @@
         <v>62375.643564356433</v>
       </c>
       <c r="E5">
-        <v>122509.40594059406</v>
+        <v>122509.40594059401</v>
       </c>
       <c r="F5">
         <v>65221.257425742573</v>

--- a/ProcessSimulator/Runtime Comparisons.xlsx
+++ b/ProcessSimulator/Runtime Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9653A01-55BC-4EB6-A063-8E7168FE2E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17BBB4-879B-40F1-B59B-3039E88BDB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6000" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -984,7 +987,19 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Runtime</a:t>
+                  <a:t> Runtime (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1176,7 +1191,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Runtime of Scheduling Algorithms Vs Number of Processes (n) Exclusing n = 500</a:t>
+              <a:t> Runtime of Scheduling Algorithms Vs Number of Processes (n) Excluding n = 500</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2007,7 +2022,19 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Runtime</a:t>
+                  <a:t> Runtime (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3588,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3741,6 +3768,11 @@
         <v>1229387.712871287</v>
       </c>
     </row>
+    <row r="29" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z29" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
